--- a/scores.xlsx
+++ b/scores.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="452">
   <si>
     <t>Attempt</t>
   </si>
   <si>
+    <t>Ideas</t>
+  </si>
+  <si>
     <t>Stage 2 Score</t>
   </si>
   <si>
@@ -32,9 +35,6 @@
     <t>Train Loss</t>
   </si>
   <si>
-    <t>Ideas</t>
-  </si>
-  <si>
     <t>Val Loss</t>
   </si>
   <si>
@@ -53,15 +53,21 @@
     <t>Notes</t>
   </si>
   <si>
+    <t>Stage 2 notes</t>
+  </si>
+  <si>
+    <t>Implementation of a unet in Keras 25 epochs</t>
+  </si>
+  <si>
+    <t>15 sec/epoch</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
     <t>Use pytorch for the unet</t>
   </si>
   <si>
-    <t>Stage 2 notes</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
     <t>Gives better results than unet, in progress</t>
   </si>
   <si>
-    <t>Implementation of a unet in Keras 25 epochs</t>
-  </si>
-  <si>
-    <t>15 sec/epoch</t>
-  </si>
-  <si>
     <t>Use pytorch mask rcnn config</t>
   </si>
   <si>
@@ -110,58 +110,64 @@
     <t>kerasUnet/25-epochs-0.9-0.1-train-test-split-lr-0.0001-correct implementation</t>
   </si>
   <si>
+    <t>use imgaug</t>
+  </si>
+  <si>
     <t>Incorrect iou metric</t>
   </si>
   <si>
+    <t>0.08 higher than normal on 5 epochs, 10 epochs is 0.362</t>
+  </si>
+  <si>
+    <t>split training over heads</t>
+  </si>
+  <si>
+    <t>Train heads only for smaller number of epochs</t>
+  </si>
+  <si>
+    <t>No Time</t>
+  </si>
+  <si>
+    <t>postprocessing</t>
+  </si>
+  <si>
+    <t>Watershed, binary dilation</t>
+  </si>
+  <si>
+    <t>use neptune-ml config</t>
+  </si>
+  <si>
+    <t>5 epochs gives 0.417, 10 is 0.412, 20 is 0.405</t>
+  </si>
+  <si>
+    <t>normalize each image</t>
+  </si>
+  <si>
     <t>Implementation of a unet in Pytorch. 25 epochs. Batch size of 4</t>
   </si>
   <si>
-    <t>use imgaug</t>
-  </si>
-  <si>
     <t>30 sec/epoch. Data loading</t>
   </si>
   <si>
-    <t>0.08 higher than normal on 5 epochs, 10 epochs is 0.362</t>
-  </si>
-  <si>
     <t>pytorchUnet/correct-implementation-25-epochs-0.8-0.2-train-val-split-batch-size-4</t>
   </si>
   <si>
     <t>correct iou metric</t>
   </si>
   <si>
-    <t>split training over heads</t>
-  </si>
-  <si>
-    <t>Train heads only for smaller number of epochs</t>
-  </si>
-  <si>
-    <t>No Time</t>
-  </si>
-  <si>
-    <t>postprocessing</t>
+    <t>https://www.kaggle.com/c/data-science-bowl-2018/discussion/50610 normalized_img = ( img - mean_of_img )/ stdev_of_img</t>
   </si>
   <si>
     <t>Same as attempt #2 but with 10 epochs</t>
   </si>
   <si>
-    <t>Watershed, binary dilation</t>
-  </si>
-  <si>
     <t>pytorchUnet/10-epochs-0.8-0.2-train-val-split-batch-size-4</t>
   </si>
   <si>
-    <t>use neptune-ml config</t>
-  </si>
-  <si>
     <t>Not as good</t>
   </si>
   <si>
-    <t>5 epochs gives 0.417, 10 is 0.412, 20 is 0.405</t>
-  </si>
-  <si>
-    <t>normalize each image</t>
+    <t>Worse results</t>
   </si>
   <si>
     <t>Same as attempt #1 but with a batch size of 8</t>
@@ -170,60 +176,54 @@
     <t>10 sec/epoch</t>
   </si>
   <si>
-    <t>https://www.kaggle.com/c/data-science-bowl-2018/discussion/50610 normalized_img = ( img - mean_of_img )/ stdev_of_img</t>
-  </si>
-  <si>
-    <t>Worse results</t>
-  </si>
-  <si>
     <t>Try a different mask rcnn</t>
   </si>
   <si>
+    <t>kerasUnet/25-epochs-0.9-0.1-train-test-split-lr-0.0001-batch-size-8</t>
+  </si>
+  <si>
+    <t>Not as good, wrong iou metric calculation</t>
+  </si>
+  <si>
     <t>https://github.com/YanWang2014/Mask_RCNN</t>
   </si>
   <si>
     <t>Might take a while</t>
   </si>
   <si>
-    <t>kerasUnet/25-epochs-0.9-0.1-train-test-split-lr-0.0001-batch-size-8</t>
+    <t>A Keras unet with data augmentation 25 epochs batch size of 4 default params</t>
   </si>
   <si>
     <t xml:space="preserve">Use the neptune ml repo </t>
   </si>
   <si>
+    <t>kerasUnetAugmented/25-epochs-default-params</t>
+  </si>
+  <si>
     <t>Change file paths</t>
   </si>
   <si>
+    <t>Underfitting compared to above, wrong iou metric calculation</t>
+  </si>
+  <si>
     <t>Didn't have time</t>
   </si>
   <si>
-    <t>Not as good, wrong iou metric calculation</t>
-  </si>
-  <si>
     <t>STAGE 2</t>
   </si>
   <si>
     <t>train for less epochs, overfitting</t>
   </si>
   <si>
+    <t>Same as attempt #5 but with 50 epochs</t>
+  </si>
+  <si>
     <t>Use external data</t>
   </si>
   <si>
     <t>mask rcnn might not be as good as unet</t>
   </si>
   <si>
-    <t>A Keras unet with data augmentation 25 epochs batch size of 4 default params</t>
-  </si>
-  <si>
-    <t>kerasUnetAugmented/25-epochs-default-params</t>
-  </si>
-  <si>
-    <t>Underfitting compared to above, wrong iou metric calculation</t>
-  </si>
-  <si>
-    <t>Same as attempt #5 but with 50 epochs</t>
-  </si>
-  <si>
     <t>kerasUnetAugmented/50-epochs-default-params</t>
   </si>
   <si>
@@ -1325,7 +1325,7 @@
     <t xml:space="preserve">0.9706 0.0376 0.2766 0.2283 0.1707 0.2574 </t>
   </si>
   <si>
-    <t>matterport 20 heads 50 all</t>
+    <t>matterport 20 heads 30 all</t>
   </si>
   <si>
     <t>maskRcnn/matterport/20-heads-50-all</t>
@@ -1337,14 +1337,44 @@
     <t>Very good train more</t>
   </si>
   <si>
-    <t>Overfits, really bad</t>
+    <t>Overfits, really bad. PS Really good at stage 2 scores apparently</t>
+  </si>
+  <si>
+    <t>FINAL RESULTS</t>
+  </si>
+  <si>
+    <t>matterport 20 heads 10 all</t>
+  </si>
+  <si>
+    <t>stage-2/matterport/30-epochs</t>
+  </si>
+  <si>
+    <t>stage-2/matterport/50-epochs</t>
+  </si>
+  <si>
+    <t>The Best</t>
+  </si>
+  <si>
+    <t>pytorch config 2 epochs, inference on matterport code</t>
+  </si>
+  <si>
+    <t>stage-2/pytorch-config</t>
+  </si>
+  <si>
+    <t>matterport 20 heads 30 all. Using '1 1' as rle if no masks are predicted</t>
+  </si>
+  <si>
+    <t>stage-2/matterport/50-epochs-fill-missing-rles</t>
+  </si>
+  <si>
+    <t>No change, pointless</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -1362,6 +1392,9 @@
     </font>
     <font>
       <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="24.0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1408,7 +1441,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1418,14 +1451,14 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -1517,6 +1550,15 @@
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1564,19 +1606,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -1593,75 +1635,75 @@
       <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.276</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.8282</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.8291</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.0669</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.0704</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0.276</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.8282</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0.8291</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0.0669</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0.0704</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>2.0</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>0.275</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>0.5999</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>0.6</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>0.1092</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>0.2492</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>33</v>
+      <c r="H3" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -1683,49 +1725,49 @@
       <c r="G4" s="8">
         <v>0.4965</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>43</v>
+      <c r="H4" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>4.0</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>0.266</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>0.8088</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>0.8099</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>0.0702</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>0.0825</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>50</v>
+      <c r="H5" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -1747,43 +1789,43 @@
       <c r="G6" s="8">
         <v>0.0772</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>66</v>
+      <c r="H6" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.289</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.825</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.8252</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.0835</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.0758</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.289</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.825</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0.8252</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.0835</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.0758</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="I7" s="8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>70</v>
@@ -1811,7 +1853,7 @@
       <c r="G8" s="8">
         <v>0.0923</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>72</v>
       </c>
       <c r="I8" s="8" t="s">
@@ -1821,7 +1863,7 @@
         <v>74</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
@@ -1841,11 +1883,11 @@
       <c r="G9" s="8">
         <v>0.0871</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>76</v>
@@ -1870,11 +1912,11 @@
       <c r="G10" s="8">
         <v>0.0839</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>79</v>
@@ -1884,29 +1926,29 @@
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>10.0</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>0.299</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>0.569</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>0.5583</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>0.0803</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>0.0749</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="4" t="s">
         <v>81</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>82</v>
@@ -1931,13 +1973,13 @@
       <c r="G12" s="8">
         <v>0.0831</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="J12" s="3"/>
       <c r="L12" s="8" t="s">
         <v>85</v>
       </c>
@@ -1958,13 +2000,13 @@
       <c r="G13" s="8">
         <v>0.084</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="4" t="s">
         <v>86</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>87</v>
       </c>
       <c r="L13" s="8" t="s">
@@ -1990,7 +2032,7 @@
       <c r="G14" s="8">
         <v>0.1278</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="4" t="s">
         <v>88</v>
       </c>
       <c r="I14" s="8" t="s">
@@ -2022,7 +2064,7 @@
       <c r="G15" s="8">
         <v>0.0809</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="4" t="s">
         <v>92</v>
       </c>
       <c r="I15" s="8" t="s">
@@ -2054,7 +2096,7 @@
       <c r="G16" s="8">
         <v>0.0684</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="4" t="s">
         <v>95</v>
       </c>
       <c r="I16" s="8" t="s">
@@ -2063,7 +2105,7 @@
       <c r="J16" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="3" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2074,19 +2116,19 @@
       <c r="C17" s="8">
         <v>0.258</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="4" t="s">
         <v>97</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="3" t="s">
         <v>99</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2097,15 +2139,15 @@
       <c r="C18" s="8">
         <v>0.288</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="4" t="s">
         <v>104</v>
       </c>
       <c r="I18" s="8" t="s">
@@ -2122,25 +2164,25 @@
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>18.0</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>0.33</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>0.4798</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="4">
         <v>0.4798</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="4" t="s">
         <v>110</v>
       </c>
       <c r="I19" s="8" t="s">
@@ -2157,25 +2199,25 @@
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>19.0</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>0.338</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>0.4905</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="4">
         <v>0.4905</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="4" t="s">
         <v>116</v>
       </c>
       <c r="I20" s="8" t="s">
@@ -2187,7 +2229,7 @@
       <c r="K20" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="4" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2195,17 +2237,17 @@
       <c r="A21" s="8">
         <v>20.0</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="4" t="s">
         <v>120</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="J21" s="4"/>
+      <c r="J21" s="3"/>
       <c r="K21" t="s">
         <v>121</v>
       </c>
-      <c r="L21" s="4"/>
+      <c r="L21" s="3"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="12">
@@ -2255,13 +2297,13 @@
       <c r="E23" s="8">
         <v>0.4885</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="4" t="s">
         <v>130</v>
       </c>
       <c r="I23" s="8" t="s">
@@ -2278,15 +2320,15 @@
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>23.0</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="s">
         <v>134</v>
       </c>
       <c r="I24" s="8" t="s">
@@ -2295,30 +2337,30 @@
       <c r="J24" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>24.0</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="4">
         <v>0.36</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="4">
         <v>0.5202</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="4">
         <v>0.5202</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="4" t="s">
         <v>139</v>
       </c>
       <c r="I25" s="8" t="s">
@@ -2327,10 +2369,10 @@
       <c r="J25" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4221,17 +4263,203 @@
       <c r="L94" s="37" t="s">
         <v>440</v>
       </c>
-      <c r="M94" s="30" t="s">
+      <c r="M94" s="38" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1">
+      <c r="B96" s="39" t="s">
+        <v>442</v>
+      </c>
+    </row>
     <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1">
+      <c r="A98" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="B98" s="17">
+        <v>0.429</v>
+      </c>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="G98" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="H98" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="I98" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J98" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="K98" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="L98" s="20"/>
+      <c r="M98" s="20"/>
+      <c r="N98" s="20"/>
+      <c r="O98" s="20"/>
+      <c r="P98" s="20"/>
+      <c r="Q98" s="20"/>
+      <c r="R98" s="20"/>
+      <c r="S98" s="20"/>
+      <c r="T98" s="20"/>
+      <c r="U98" s="20"/>
+      <c r="V98" s="20"/>
+      <c r="W98" s="20"/>
+      <c r="X98" s="20"/>
+      <c r="Y98" s="20"/>
+      <c r="Z98" s="20"/>
+    </row>
+    <row r="99" ht="14.25" customHeight="1">
+      <c r="A99" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="B99" s="17">
+        <v>0.447</v>
+      </c>
+      <c r="C99" s="17">
+        <v>0.416</v>
+      </c>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="40" t="s">
+        <v>435</v>
+      </c>
+      <c r="G99" s="40" t="s">
+        <v>436</v>
+      </c>
+      <c r="H99" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="I99" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J99" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="K99" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="L99" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="M99" s="20"/>
+      <c r="N99" s="20"/>
+      <c r="O99" s="20"/>
+      <c r="P99" s="20"/>
+      <c r="Q99" s="20"/>
+      <c r="R99" s="20"/>
+      <c r="S99" s="20"/>
+      <c r="T99" s="20"/>
+      <c r="U99" s="20"/>
+      <c r="V99" s="20"/>
+      <c r="W99" s="20"/>
+      <c r="X99" s="20"/>
+      <c r="Y99" s="20"/>
+      <c r="Z99" s="20"/>
+    </row>
+    <row r="100" ht="14.25" customHeight="1">
+      <c r="A100" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="B100" s="17">
+        <v>0.389</v>
+      </c>
+      <c r="C100" s="17">
+        <v>0.425</v>
+      </c>
+      <c r="D100" s="17">
+        <v>0.5132</v>
+      </c>
+      <c r="E100" s="20"/>
+      <c r="F100" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="G100" s="20"/>
+      <c r="H100" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="I100" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J100" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="K100" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="L100" s="20"/>
+      <c r="M100" s="20"/>
+      <c r="N100" s="20"/>
+      <c r="O100" s="20"/>
+      <c r="P100" s="20"/>
+      <c r="Q100" s="20"/>
+      <c r="R100" s="20"/>
+      <c r="S100" s="20"/>
+      <c r="T100" s="20"/>
+      <c r="U100" s="20"/>
+      <c r="V100" s="20"/>
+      <c r="W100" s="20"/>
+      <c r="X100" s="20"/>
+      <c r="Y100" s="20"/>
+      <c r="Z100" s="20"/>
+    </row>
+    <row r="101" ht="14.25" customHeight="1">
+      <c r="A101" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="B101" s="17">
+        <v>0.447</v>
+      </c>
+      <c r="C101" s="17">
+        <v>0.416</v>
+      </c>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="40" t="s">
+        <v>435</v>
+      </c>
+      <c r="G101" s="40" t="s">
+        <v>436</v>
+      </c>
+      <c r="H101" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="I101" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J101" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="K101" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="L101" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="M101" s="20"/>
+      <c r="N101" s="20"/>
+      <c r="O101" s="20"/>
+      <c r="P101" s="20"/>
+      <c r="Q101" s="20"/>
+      <c r="R101" s="20"/>
+      <c r="S101" s="20"/>
+      <c r="T101" s="20"/>
+      <c r="U101" s="20"/>
+      <c r="V101" s="20"/>
+      <c r="W101" s="20"/>
+      <c r="X101" s="20"/>
+      <c r="Y101" s="20"/>
+      <c r="Z101" s="20"/>
+    </row>
     <row r="102" ht="14.25" customHeight="1"/>
     <row r="103" ht="14.25" customHeight="1"/>
     <row r="104" ht="14.25" customHeight="1"/>
@@ -5156,67 +5384,67 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
+      <c r="A1" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>16</v>
+      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
+      <c r="A3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
+      <c r="A5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
+      <c r="A6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>16</v>
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1"/>
@@ -5241,52 +5469,52 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
@@ -5294,43 +5522,43 @@
         <v>54</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1"/>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1"/>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1"/>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -12,29 +12,71 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="453">
+  <si>
+    <t>Ideas</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Use pytorch for the unet</t>
+  </si>
   <si>
     <t>Attempt</t>
   </si>
   <si>
-    <t>Ideas</t>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Use a larger input image</t>
+  </si>
+  <si>
+    <t>Use dropout and batchnorm</t>
+  </si>
+  <si>
+    <t>Use a larger batch size</t>
+  </si>
+  <si>
+    <t>Use ConvTransposed2d layers</t>
+  </si>
+  <si>
+    <t>Use data augmentation</t>
+  </si>
+  <si>
+    <t>Use a mask rcnn</t>
+  </si>
+  <si>
+    <t>Gives better results than unet, in progress</t>
   </si>
   <si>
     <t>Stage 2 Score</t>
   </si>
   <si>
+    <t>Use pytorch mask rcnn config</t>
+  </si>
+  <si>
     <t>Test Score</t>
   </si>
   <si>
+    <t>Gives better result after 2 epochs but 3 is worse</t>
+  </si>
+  <si>
     <t>Train Score</t>
   </si>
   <si>
+    <t>Peaks at 0.425</t>
+  </si>
+  <si>
     <t>Val Score</t>
   </si>
   <si>
     <t>Train Loss</t>
   </si>
   <si>
+    <t>use comment config</t>
+  </si>
+  <si>
     <t>Val Loss</t>
   </si>
   <si>
@@ -53,99 +95,63 @@
     <t>Notes</t>
   </si>
   <si>
+    <t>https://www.kaggle.com/c/data-science-bowl-2018/discussion/53705</t>
+  </si>
+  <si>
     <t>Stage 2 notes</t>
   </si>
   <si>
+    <t>use imgaug</t>
+  </si>
+  <si>
+    <t>0.08 higher than normal on 5 epochs, 10 epochs is 0.362</t>
+  </si>
+  <si>
+    <t>split training over heads</t>
+  </si>
+  <si>
+    <t>Train heads only for smaller number of epochs</t>
+  </si>
+  <si>
+    <t>No Time</t>
+  </si>
+  <si>
+    <t>postprocessing</t>
+  </si>
+  <si>
+    <t>Watershed, binary dilation</t>
+  </si>
+  <si>
+    <t>use neptune-ml config</t>
+  </si>
+  <si>
+    <t>5 epochs gives 0.417, 10 is 0.412, 20 is 0.405</t>
+  </si>
+  <si>
     <t>Implementation of a unet in Keras 25 epochs</t>
   </si>
   <si>
+    <t>normalize each image</t>
+  </si>
+  <si>
     <t>15 sec/epoch</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Use pytorch for the unet</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Use a larger input image</t>
-  </si>
-  <si>
-    <t>Use dropout and batchnorm</t>
-  </si>
-  <si>
-    <t>Use a larger batch size</t>
-  </si>
-  <si>
-    <t>Use ConvTransposed2d layers</t>
-  </si>
-  <si>
-    <t>Use data augmentation</t>
-  </si>
-  <si>
-    <t>Use a mask rcnn</t>
-  </si>
-  <si>
-    <t>Gives better results than unet, in progress</t>
-  </si>
-  <si>
-    <t>Use pytorch mask rcnn config</t>
-  </si>
-  <si>
-    <t>Gives better result after 2 epochs but 3 is worse</t>
-  </si>
-  <si>
-    <t>Peaks at 0.425</t>
-  </si>
-  <si>
-    <t>use comment config</t>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/c/data-science-bowl-2018/discussion/53705</t>
+    <t>https://www.kaggle.com/c/data-science-bowl-2018/discussion/50610 normalized_img = ( img - mean_of_img )/ stdev_of_img</t>
   </si>
   <si>
     <t>kerasUnet/25-epochs-0.9-0.1-train-test-split-lr-0.0001-correct implementation</t>
   </si>
   <si>
-    <t>use imgaug</t>
-  </si>
-  <si>
     <t>Incorrect iou metric</t>
   </si>
   <si>
-    <t>0.08 higher than normal on 5 epochs, 10 epochs is 0.362</t>
-  </si>
-  <si>
-    <t>split training over heads</t>
-  </si>
-  <si>
-    <t>Train heads only for smaller number of epochs</t>
-  </si>
-  <si>
-    <t>No Time</t>
-  </si>
-  <si>
-    <t>postprocessing</t>
-  </si>
-  <si>
-    <t>Watershed, binary dilation</t>
-  </si>
-  <si>
-    <t>use neptune-ml config</t>
-  </si>
-  <si>
-    <t>5 epochs gives 0.417, 10 is 0.412, 20 is 0.405</t>
-  </si>
-  <si>
-    <t>normalize each image</t>
-  </si>
-  <si>
     <t>Implementation of a unet in Pytorch. 25 epochs. Batch size of 4</t>
   </si>
   <si>
+    <t>Worse results</t>
+  </si>
+  <si>
     <t>30 sec/epoch. Data loading</t>
   </si>
   <si>
@@ -155,7 +161,10 @@
     <t>correct iou metric</t>
   </si>
   <si>
-    <t>https://www.kaggle.com/c/data-science-bowl-2018/discussion/50610 normalized_img = ( img - mean_of_img )/ stdev_of_img</t>
+    <t>Try a different mask rcnn</t>
+  </si>
+  <si>
+    <t>https://github.com/YanWang2014/Mask_RCNN</t>
   </si>
   <si>
     <t>Same as attempt #2 but with 10 epochs</t>
@@ -167,7 +176,19 @@
     <t>Not as good</t>
   </si>
   <si>
-    <t>Worse results</t>
+    <t>Might take a while</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use the neptune ml repo </t>
+  </si>
+  <si>
+    <t>Change file paths</t>
+  </si>
+  <si>
+    <t>Didn't have time</t>
+  </si>
+  <si>
+    <t>STAGE 2</t>
   </si>
   <si>
     <t>Same as attempt #1 but with a batch size of 8</t>
@@ -176,54 +197,33 @@
     <t>10 sec/epoch</t>
   </si>
   <si>
-    <t>Try a different mask rcnn</t>
+    <t>train for less epochs, overfitting</t>
   </si>
   <si>
     <t>kerasUnet/25-epochs-0.9-0.1-train-test-split-lr-0.0001-batch-size-8</t>
   </si>
   <si>
+    <t>Use external data</t>
+  </si>
+  <si>
     <t>Not as good, wrong iou metric calculation</t>
   </si>
   <si>
-    <t>https://github.com/YanWang2014/Mask_RCNN</t>
-  </si>
-  <si>
-    <t>Might take a while</t>
+    <t>mask rcnn might not be as good as unet</t>
   </si>
   <si>
     <t>A Keras unet with data augmentation 25 epochs batch size of 4 default params</t>
   </si>
   <si>
-    <t xml:space="preserve">Use the neptune ml repo </t>
-  </si>
-  <si>
     <t>kerasUnetAugmented/25-epochs-default-params</t>
   </si>
   <si>
-    <t>Change file paths</t>
-  </si>
-  <si>
     <t>Underfitting compared to above, wrong iou metric calculation</t>
   </si>
   <si>
-    <t>Didn't have time</t>
-  </si>
-  <si>
-    <t>STAGE 2</t>
-  </si>
-  <si>
-    <t>train for less epochs, overfitting</t>
-  </si>
-  <si>
     <t>Same as attempt #5 but with 50 epochs</t>
   </si>
   <si>
-    <t>Use external data</t>
-  </si>
-  <si>
-    <t>mask rcnn might not be as good as unet</t>
-  </si>
-  <si>
     <t>kerasUnetAugmented/50-epochs-default-params</t>
   </si>
   <si>
@@ -398,6 +398,9 @@
     <t>Model increased in accuracy by 0.03 in 33 epochs</t>
   </si>
   <si>
+    <t>Model file is saved</t>
+  </si>
+  <si>
     <t>0.7503 0.0247 0.1933 0.1265 0.1466 0.2593</t>
   </si>
   <si>
@@ -872,7 +875,7 @@
     <t>Submission finally succeeds</t>
   </si>
   <si>
-    <t>Good results on stage2</t>
+    <t>Good results on stage2, Model file is saved</t>
   </si>
   <si>
     <t>mask rcnn alternate config coco lr 1e-4 28 epochs</t>
@@ -1001,7 +1004,7 @@
     <t xml:space="preserve">A LOT BETTER. </t>
   </si>
   <si>
-    <t>this model is extremely bad at stage 2, overfits</t>
+    <t>this model is extremely bad at stage 2, overfits, model file is saved</t>
   </si>
   <si>
     <t>mask rcnn coco pytorch config 3 epochs</t>
@@ -1268,7 +1271,7 @@
     <t>1lCLRDHi41zB_TEWRnlqnKRi3pvx4lnC4</t>
   </si>
   <si>
-    <t>Better than attempt #58 at stage2</t>
+    <t>Better than attempt #58 at stage2. Model file is saved</t>
   </si>
   <si>
     <t>mask rcnn matterport 20 heads 20 all</t>
@@ -1337,7 +1340,7 @@
     <t>Very good train more</t>
   </si>
   <si>
-    <t>Overfits, really bad. PS Really good at stage 2 scores apparently</t>
+    <t>Overfits, really bad. PS Really good at stage 2 scores apparently. Model file is saved</t>
   </si>
   <si>
     <t>FINAL RESULTS</t>
@@ -1380,12 +1383,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <sz val="11.0"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -1412,8 +1415,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor rgb="FFF3F3F3"/>
+        <fgColor rgb="FF9FC5E8"/>
+        <bgColor rgb="FF9FC5E8"/>
       </patternFill>
     </fill>
     <fill>
@@ -1441,104 +1444,142 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="55">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1550,7 +1591,7 @@
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1602,2863 +1643,2893 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="8">
         <v>1.0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="8">
         <v>0.276</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="8">
         <v>0.8282</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="8">
         <v>0.8291</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="8">
         <v>0.0669</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="8">
         <v>0.0704</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>33</v>
+      <c r="H2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="8">
         <v>2.0</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="8">
         <v>0.275</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="8">
         <v>0.5999</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="8">
         <v>0.6</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="8">
         <v>0.1092</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="8">
         <v>0.2492</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="8" t="s">
+      <c r="I3" s="10" t="s">
         <v>46</v>
       </c>
+      <c r="J3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="8">
+      <c r="A4" s="10">
         <v>3.0</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="10">
         <v>0.248</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="10">
         <v>0.3686</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="10">
         <v>0.3705</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="10">
         <v>0.2398</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="10">
         <v>0.4965</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>50</v>
+      <c r="H4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="8">
         <v>4.0</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="8">
         <v>0.266</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="8">
         <v>0.8088</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="8">
         <v>0.8099</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="8">
         <v>0.0702</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="8">
         <v>0.0825</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>56</v>
+      <c r="H5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="8">
+      <c r="A6" s="10">
         <v>5.0</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="10">
         <v>0.261</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="10">
         <v>0.8059</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="10">
         <v>0.8064</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="10">
         <v>0.0913</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="10">
         <v>0.0772</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>63</v>
+      <c r="H6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="4">
+      <c r="A7" s="8">
         <v>6.0</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="8">
         <v>0.289</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="8">
         <v>0.825</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="8">
         <v>0.8252</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="8">
         <v>0.0835</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="8">
         <v>0.0758</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="8" t="s">
+      <c r="H7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="8">
+      <c r="A8" s="10">
         <v>7.0</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="10">
         <v>0.255</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="10">
         <v>0.6842</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="10">
         <v>0.6865</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="10">
         <v>0.1174</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="10">
         <v>0.0923</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="L8" s="8" t="s">
-        <v>56</v>
+      <c r="L8" s="10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="8">
+      <c r="A9" s="10">
         <v>8.0</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10">
         <v>0.807</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="10">
         <v>0.8077</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="10">
         <v>0.0877</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="10">
         <v>0.0871</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="8" t="s">
+      <c r="I9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="8">
+      <c r="A10" s="10">
         <v>9.0</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="10">
         <v>0.5536</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="10">
         <v>0.5543</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="10">
         <v>0.0855</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="10">
         <v>0.0839</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="8" t="s">
+      <c r="I10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="4">
+      <c r="A11" s="8">
         <v>10.0</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="8">
         <v>0.299</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="8">
         <v>0.569</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="8">
         <v>0.5583</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="8">
         <v>0.0803</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="8">
         <v>0.0749</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="8" t="s">
+      <c r="I11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="8">
+      <c r="A12" s="10">
         <v>11.0</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="10">
         <v>0.553</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="10">
         <v>0.5369</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="10">
         <v>0.0864</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="10">
         <v>0.0831</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="L12" s="8" t="s">
+      <c r="I12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="L12" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="8">
+      <c r="A13" s="10">
         <v>12.0</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="10">
         <v>0.5363</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="10">
         <v>0.5148</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="10">
         <v>0.0881</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="10">
         <v>0.084</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="I13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="8">
+      <c r="A14" s="10">
         <v>13.0</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="10">
         <v>0.282</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="10">
         <v>0.3919</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="10">
         <v>0.4269</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="10">
         <v>0.0816</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="10">
         <v>0.1278</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="8">
+      <c r="A15" s="10">
         <v>14.0</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="10">
         <v>0.255</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="10">
         <v>0.5082</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="10">
         <v>0.5154</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="10">
         <v>0.0839</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="10">
         <v>0.0809</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="8">
+      <c r="A16" s="10">
         <v>15.0</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="10">
         <v>0.308</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="10">
         <v>0.5498</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="10">
         <v>0.5413</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="10">
         <v>0.069</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="10">
         <v>0.0684</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="8">
+      <c r="A17" s="10">
         <v>16.0</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="10">
         <v>0.258</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="8">
+      <c r="A18" s="10">
         <v>17.0</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="10">
         <v>0.288</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="4" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="10" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="4">
+      <c r="A19" s="8">
         <v>18.0</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="8">
         <v>0.33</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="8">
         <v>0.4798</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="8">
         <v>0.4798</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="4">
+      <c r="A20" s="8">
         <v>19.0</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="8">
         <v>0.338</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="8">
         <v>0.4905</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="8">
         <v>0.4905</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="8">
+      <c r="A21" s="10">
         <v>20.0</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="J21" s="3"/>
+      <c r="J21" s="6"/>
       <c r="K21" t="s">
         <v>121</v>
       </c>
-      <c r="L21" s="3"/>
+      <c r="L21" s="6"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="12">
         <v>21.0</v>
       </c>
-      <c r="C22" s="13">
+      <c r="B22" s="13"/>
+      <c r="C22" s="14">
         <v>0.368</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="14">
         <v>0.5152</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="14">
         <v>0.5152</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K22" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="L22" s="13" t="s">
+      <c r="L22" s="14" t="s">
         <v>127</v>
       </c>
+      <c r="M22" s="17" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="8">
+      <c r="A23" s="10">
         <v>22.0</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="10">
         <v>0.334</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="10">
         <v>0.4885</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="10">
         <v>0.4885</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="8">
+        <v>23.0</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="A25" s="8">
+        <v>24.0</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.36</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.5202</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0.5202</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="18">
+        <v>25.0</v>
+      </c>
+      <c r="C26" s="18">
+        <v>0.324</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0.4833</v>
+      </c>
+      <c r="E26" s="18">
+        <v>0.4833</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="19">
+        <v>26.0</v>
+      </c>
+      <c r="C27" s="19">
+        <v>0.34</v>
+      </c>
+      <c r="D27" s="19">
+        <v>0.5024</v>
+      </c>
+      <c r="E27" s="19">
+        <v>0.5024</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="A28" s="18">
+        <v>27.0</v>
+      </c>
+      <c r="C28" s="19">
+        <v>0.379</v>
+      </c>
+      <c r="D28" s="19">
+        <v>0.5549</v>
+      </c>
+      <c r="E28" s="19">
+        <v>0.5549</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" customHeight="1">
+      <c r="A29" s="19">
+        <v>28.0</v>
+      </c>
+      <c r="C29" s="19">
+        <v>0.328</v>
+      </c>
+      <c r="D29" s="19">
+        <v>0.5256</v>
+      </c>
+      <c r="E29" s="19">
+        <v>0.5256</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" customHeight="1">
+      <c r="A30" s="19">
+        <v>29.0</v>
+      </c>
+      <c r="C30" s="19">
+        <v>0.292</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0.4711</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0.4711</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="A31" s="19">
+        <v>30.0</v>
+      </c>
+      <c r="C31" s="19">
+        <v>0.352</v>
+      </c>
+      <c r="D31" s="19">
+        <v>0.5453</v>
+      </c>
+      <c r="E31" s="19">
+        <v>0.5453</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" customHeight="1">
+      <c r="A32" s="19">
+        <v>31.0</v>
+      </c>
+      <c r="C32" s="19">
+        <v>0.277</v>
+      </c>
+      <c r="D32" s="19">
+        <v>0.4492</v>
+      </c>
+      <c r="E32" s="19">
+        <v>0.4492</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="A33" s="20">
+        <v>32.0</v>
+      </c>
+      <c r="C33" s="20">
+        <v>0.385</v>
+      </c>
+      <c r="D33" s="20">
+        <v>0.549</v>
+      </c>
+      <c r="E33" s="20">
+        <v>0.549</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L33" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="A34" s="19">
+        <v>33.0</v>
+      </c>
+      <c r="C34" s="19">
+        <v>0.37</v>
+      </c>
+      <c r="D34" s="19">
+        <v>0.5368</v>
+      </c>
+      <c r="E34" s="19">
+        <v>0.5368</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" customHeight="1">
+      <c r="A35" s="19">
+        <v>34.0</v>
+      </c>
+      <c r="C35" s="19">
+        <v>0.342</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="A36" s="20">
+        <v>35.0</v>
+      </c>
+      <c r="C36" s="20">
+        <v>0.412</v>
+      </c>
+      <c r="D36" s="23">
+        <v>0.5487</v>
+      </c>
+      <c r="E36" s="23">
+        <v>0.5487</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K36" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="L36" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" customHeight="1">
+      <c r="A37" s="19">
+        <v>36.0</v>
+      </c>
+      <c r="C37" s="19">
+        <v>0.376</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="L37" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="A38" s="19">
+        <v>38.0</v>
+      </c>
+      <c r="C38" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="D38" s="19">
+        <v>0.4424</v>
+      </c>
+      <c r="E38" s="19">
+        <v>0.4424</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="L38" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="A39" s="19">
+        <v>45.0</v>
+      </c>
+      <c r="C39" s="19">
+        <v>0.297</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="K39" s="22"/>
+      <c r="L39" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="A40" s="19">
+        <v>46.0</v>
+      </c>
+      <c r="C40" s="19">
+        <v>0.282</v>
+      </c>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="K40" s="22"/>
+      <c r="L40" s="19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="A41" s="24">
+        <v>37.0</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="24">
+        <v>0.382</v>
+      </c>
+      <c r="D41" s="25">
+        <v>0.554</v>
+      </c>
+      <c r="E41" s="25">
+        <v>0.554</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="I41" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="J41" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K41" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="L41" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="M41" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I23" s="8" t="s">
+    </row>
+    <row r="42" ht="14.25" customHeight="1">
+      <c r="A42" s="19">
+        <v>39.0</v>
+      </c>
+      <c r="C42" s="19">
+        <v>0.344</v>
+      </c>
+      <c r="D42" s="19">
+        <v>0.4993</v>
+      </c>
+      <c r="E42" s="19">
+        <v>0.4993</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="L42" s="19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" customHeight="1">
+      <c r="A43" s="19">
+        <v>41.0</v>
+      </c>
+      <c r="C43" s="19">
+        <v>0.331</v>
+      </c>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="K43" s="22"/>
+      <c r="L43" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="A44" s="18">
+        <v>42.0</v>
+      </c>
+      <c r="C44" s="18">
+        <v>0.349</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="A45" s="19">
+        <v>40.0</v>
+      </c>
+      <c r="C45" s="19">
+        <v>0.341</v>
+      </c>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J45" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="L45" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" customHeight="1">
+      <c r="A46" s="19">
+        <v>44.0</v>
+      </c>
+      <c r="C46" s="19">
+        <v>0.303</v>
+      </c>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="L46" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" customHeight="1">
+      <c r="A47" s="19">
+        <v>45.0</v>
+      </c>
+      <c r="C47" s="19">
+        <v>0.327</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J47" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="K47" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="L47" s="19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25" customHeight="1">
+      <c r="A48" s="19">
+        <v>46.0</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J48" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="K48" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="L48" s="22"/>
+    </row>
+    <row r="49" ht="14.25" customHeight="1">
+      <c r="A49" s="19">
+        <v>47.0</v>
+      </c>
+      <c r="C49" s="19">
+        <v>0.319</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J49" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="L49" s="19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" customHeight="1">
+      <c r="A50" s="19">
+        <v>43.0</v>
+      </c>
+      <c r="C50" s="19">
+        <v>0.292</v>
+      </c>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="I50" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="J23" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="4">
-        <v>23.0</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I24" s="8" t="s">
+      <c r="J50" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="K50" s="22"/>
+      <c r="L50" s="19" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" customHeight="1">
+      <c r="A51" s="19">
+        <v>44.0</v>
+      </c>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J51" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" customHeight="1">
+      <c r="A52" s="19">
+        <v>45.0</v>
+      </c>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J52" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="L52" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" customHeight="1">
+      <c r="A53" s="18">
+        <v>46.0</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J53" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="L53" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" customHeight="1">
+      <c r="A54" s="27">
+        <v>47.0</v>
+      </c>
+      <c r="B54" s="28"/>
+      <c r="C54" s="27">
+        <v>0.21</v>
+      </c>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="I54" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="J54" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="K54" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="L54" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="M54" s="30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" customHeight="1">
+      <c r="A55" s="19">
+        <v>48.0</v>
+      </c>
+      <c r="C55" s="19">
+        <v>0.239</v>
+      </c>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J55" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="L55" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="22"/>
+      <c r="Y55" s="22"/>
+      <c r="Z55" s="22"/>
+    </row>
+    <row r="56" ht="14.25" customHeight="1">
+      <c r="A56" s="19">
+        <v>49.0</v>
+      </c>
+      <c r="C56" s="19">
+        <v>0.254</v>
+      </c>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J56" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="L56" s="19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" customHeight="1">
+      <c r="A57" s="19">
+        <v>50.0</v>
+      </c>
+      <c r="C57" s="31">
+        <v>0.253</v>
+      </c>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J57" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="K57" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="L57" s="19" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" customHeight="1">
+      <c r="A58" s="18">
+        <v>51.0</v>
+      </c>
+      <c r="C58" s="33">
+        <v>0.267</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J58" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" customHeight="1">
+      <c r="A59" s="19">
+        <v>52.0</v>
+      </c>
+      <c r="C59" s="19">
+        <v>0.353</v>
+      </c>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J59" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="L59" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="M59" s="22"/>
+    </row>
+    <row r="60" ht="14.25" customHeight="1">
+      <c r="A60" s="18">
+        <v>53.0</v>
+      </c>
+      <c r="C60" s="18">
+        <v>0.348</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="I60" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J60" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="L60" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25" customHeight="1">
+      <c r="A61" s="18">
+        <v>54.0</v>
+      </c>
+      <c r="C61" s="18">
+        <v>0.334</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J61" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25" customHeight="1">
+      <c r="A62" s="19">
+        <v>55.0</v>
+      </c>
+      <c r="C62" s="19">
+        <v>0.335</v>
+      </c>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J62" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="K62" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="L62" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" customHeight="1">
+      <c r="A63" s="18">
+        <v>56.0</v>
+      </c>
+      <c r="C63" s="18">
+        <v>0.35</v>
+      </c>
+      <c r="H63" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="I63" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J63" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" customHeight="1">
+      <c r="A64" s="18">
+        <v>57.0</v>
+      </c>
+      <c r="C64" s="18">
+        <v>0.346</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="I64" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J64" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="L64" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25" customHeight="1">
+      <c r="A65" s="34">
+        <v>58.0</v>
+      </c>
+      <c r="C65" s="34">
+        <v>0.425</v>
+      </c>
+      <c r="D65" s="35">
+        <v>0.5132</v>
+      </c>
+      <c r="E65" s="36"/>
+      <c r="F65" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="G65" s="36"/>
+      <c r="H65" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="I65" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="J24" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="4">
-        <v>24.0</v>
-      </c>
-      <c r="C25" s="4">
+      <c r="J65" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="K65" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="L65" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="M65" s="37" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25" customHeight="1">
+      <c r="A66" s="18">
+        <v>59.0</v>
+      </c>
+      <c r="C66" s="33">
+        <v>0.416</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0.5344</v>
+      </c>
+      <c r="H66" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="I66" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="J66" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25" customHeight="1">
+      <c r="A67" s="18">
+        <v>60.0</v>
+      </c>
+      <c r="C67" s="33">
+        <v>0.388</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0.502</v>
+      </c>
+      <c r="H67" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="I67" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="J67" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25" customHeight="1">
+      <c r="A68" s="18">
+        <v>61.0</v>
+      </c>
+      <c r="C68" s="33">
+        <v>0.397</v>
+      </c>
+      <c r="D68" s="5">
+        <v>0.5106</v>
+      </c>
+      <c r="H68" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="I68" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="J68" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25" customHeight="1">
+      <c r="A69" s="18">
+        <v>62.0</v>
+      </c>
+      <c r="C69" s="33">
+        <v>0.395</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="H69" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="I69" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="J69" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25" customHeight="1">
+      <c r="A70" s="19">
+        <v>63.0</v>
+      </c>
+      <c r="C70" s="19">
+        <v>0.344</v>
+      </c>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="I70" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J70" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="K70" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25" customHeight="1">
+      <c r="A71" s="19">
+        <v>64.0</v>
+      </c>
+      <c r="C71" s="19">
+        <v>0.309</v>
+      </c>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="I71" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J71" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25" customHeight="1">
+      <c r="A72" s="18">
+        <v>65.0</v>
+      </c>
+      <c r="C72" s="18">
+        <v>0.382</v>
+      </c>
+      <c r="H72" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="I72" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J72" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25" customHeight="1">
+      <c r="A73" s="18">
+        <v>66.0</v>
+      </c>
+      <c r="C73" s="18">
         <v>0.36</v>
       </c>
-      <c r="D25" s="4">
-        <v>0.5202</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.5202</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="I25" s="8" t="s">
+      <c r="H73" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="I73" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="J25" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="16">
-        <v>25.0</v>
-      </c>
-      <c r="C26" s="16">
-        <v>0.324</v>
-      </c>
-      <c r="D26" s="16">
-        <v>0.4833</v>
-      </c>
-      <c r="E26" s="16">
-        <v>0.4833</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="I26" s="16" t="s">
+      <c r="J73" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="K73" s="18" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25" customHeight="1">
+      <c r="A74" s="39">
+        <v>67.0</v>
+      </c>
+      <c r="B74" s="40"/>
+      <c r="C74" s="39">
+        <v>0.39</v>
+      </c>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="41" t="s">
+        <v>361</v>
+      </c>
+      <c r="I74" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="J26" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="L26" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="17">
-        <v>26.0</v>
-      </c>
-      <c r="C27" s="17">
-        <v>0.34</v>
-      </c>
-      <c r="D27" s="17">
-        <v>0.5024</v>
-      </c>
-      <c r="E27" s="17">
-        <v>0.5024</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J27" s="17" t="s">
+      <c r="J74" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="K74" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="L74" s="40"/>
+      <c r="M74" s="43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25" customHeight="1">
+      <c r="A75" s="18">
+        <v>68.0</v>
+      </c>
+      <c r="C75" s="18">
+        <v>0.38</v>
+      </c>
+      <c r="H75" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="I75" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J75" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25" customHeight="1">
+      <c r="A76" s="19">
+        <v>69.0</v>
+      </c>
+      <c r="C76" s="19">
+        <v>0.377</v>
+      </c>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="I76" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J76" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="K76" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="L76" s="19" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25" customHeight="1">
+      <c r="A77" s="18">
+        <v>70.0</v>
+      </c>
+      <c r="C77" s="18">
+        <v>0.353</v>
+      </c>
+      <c r="H77" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="I77" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J77" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25" customHeight="1">
+      <c r="A78" s="19">
+        <v>71.0</v>
+      </c>
+      <c r="C78" s="19">
+        <v>0.364</v>
+      </c>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="I78" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J78" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25" customHeight="1">
+      <c r="A79" s="18">
+        <v>72.0</v>
+      </c>
+      <c r="C79" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="H79" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="I79" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J79" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="L79" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25" customHeight="1">
+      <c r="A80" s="18">
+        <v>73.0</v>
+      </c>
+      <c r="C80" s="18">
+        <v>0.399</v>
+      </c>
+      <c r="H80" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="I80" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="K27" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="L27" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="16">
-        <v>27.0</v>
-      </c>
-      <c r="C28" s="17">
-        <v>0.379</v>
-      </c>
-      <c r="D28" s="17">
-        <v>0.5549</v>
-      </c>
-      <c r="E28" s="17">
-        <v>0.5549</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="J28" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="K28" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="L28" s="17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="17">
-        <v>28.0</v>
-      </c>
-      <c r="C29" s="17">
-        <v>0.328</v>
-      </c>
-      <c r="D29" s="17">
-        <v>0.5256</v>
-      </c>
-      <c r="E29" s="17">
-        <v>0.5256</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="J29" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="L29" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="17">
-        <v>29.0</v>
-      </c>
-      <c r="C30" s="17">
-        <v>0.292</v>
-      </c>
-      <c r="D30" s="17">
-        <v>0.4711</v>
-      </c>
-      <c r="E30" s="17">
-        <v>0.4711</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="I30" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J30" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="L30" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="17">
-        <v>30.0</v>
-      </c>
-      <c r="C31" s="17">
-        <v>0.352</v>
-      </c>
-      <c r="D31" s="17">
-        <v>0.5453</v>
-      </c>
-      <c r="E31" s="17">
-        <v>0.5453</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J31" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="L31" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="17">
-        <v>31.0</v>
-      </c>
-      <c r="C32" s="17">
-        <v>0.277</v>
-      </c>
-      <c r="D32" s="17">
-        <v>0.4492</v>
-      </c>
-      <c r="E32" s="17">
-        <v>0.4492</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="I32" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J32" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="L32" s="17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="18">
-        <v>32.0</v>
-      </c>
-      <c r="C33" s="18">
-        <v>0.385</v>
-      </c>
-      <c r="D33" s="18">
-        <v>0.549</v>
-      </c>
-      <c r="E33" s="18">
-        <v>0.549</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="J33" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="L33" s="18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="17">
-        <v>33.0</v>
-      </c>
-      <c r="C34" s="17">
-        <v>0.37</v>
-      </c>
-      <c r="D34" s="17">
-        <v>0.5368</v>
-      </c>
-      <c r="E34" s="17">
-        <v>0.5368</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J34" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="L34" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="17">
-        <v>34.0</v>
-      </c>
-      <c r="C35" s="17">
-        <v>0.342</v>
-      </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J35" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="L35" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="18">
-        <v>35.0</v>
-      </c>
-      <c r="C36" s="18">
+      <c r="J80" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="L80" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25" customHeight="1">
+      <c r="A81" s="24">
+        <v>74.0</v>
+      </c>
+      <c r="B81" s="13"/>
+      <c r="C81" s="24">
+        <v>0.417</v>
+      </c>
+      <c r="D81" s="44"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="I81" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="J81" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="K81" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="L81" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="M81" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25" customHeight="1">
+      <c r="A82" s="33">
+        <v>75.0</v>
+      </c>
+      <c r="C82" s="33">
         <v>0.412</v>
       </c>
-      <c r="D36" s="21">
-        <v>0.5487</v>
-      </c>
-      <c r="E36" s="21">
-        <v>0.5487</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="K36" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="L36" s="18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="17">
-        <v>36.0</v>
-      </c>
-      <c r="C37" s="17">
-        <v>0.376</v>
-      </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="I37" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="J37" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="L37" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="17">
-        <v>38.0</v>
-      </c>
-      <c r="C38" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="D38" s="17">
-        <v>0.4424</v>
-      </c>
-      <c r="E38" s="17">
-        <v>0.4424</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="H38" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="I38" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J38" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="L38" s="17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="17">
-        <v>45.0</v>
-      </c>
-      <c r="C39" s="17">
-        <v>0.297</v>
-      </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="I39" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J39" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="K39" s="20"/>
-      <c r="L39" s="17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="17">
-        <v>46.0</v>
-      </c>
-      <c r="C40" s="17">
-        <v>0.282</v>
-      </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="H40" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="I40" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J40" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="K40" s="20"/>
-      <c r="L40" s="17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="17">
-        <v>37.0</v>
-      </c>
-      <c r="C41" s="17">
-        <v>0.382</v>
-      </c>
-      <c r="D41" s="16">
-        <v>0.554</v>
-      </c>
-      <c r="E41" s="16">
-        <v>0.554</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="H41" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="I41" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J41" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="L41" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="17">
-        <v>39.0</v>
-      </c>
-      <c r="C42" s="17">
-        <v>0.344</v>
-      </c>
-      <c r="D42" s="17">
-        <v>0.4993</v>
-      </c>
-      <c r="E42" s="17">
-        <v>0.4993</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="I42" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J42" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="L42" s="17" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="17">
-        <v>41.0</v>
-      </c>
-      <c r="C43" s="17">
-        <v>0.331</v>
-      </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="H43" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="I43" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J43" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="K43" s="20"/>
-      <c r="L43" s="17" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="16">
-        <v>42.0</v>
-      </c>
-      <c r="C44" s="16">
-        <v>0.349</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="H44" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="I44" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J44" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="K44" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="L44" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="17">
-        <v>40.0</v>
-      </c>
-      <c r="C45" s="17">
-        <v>0.341</v>
-      </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="H45" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="I45" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J45" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="K45" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="L45" s="17" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="17">
-        <v>44.0</v>
-      </c>
-      <c r="C46" s="17">
-        <v>0.303</v>
-      </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="H46" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="I46" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J46" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="L46" s="17" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="17">
-        <v>45.0</v>
-      </c>
-      <c r="C47" s="17">
-        <v>0.327</v>
-      </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J47" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="K47" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="L47" s="17" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="17">
-        <v>46.0</v>
-      </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="I48" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J48" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="K48" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="L48" s="20"/>
-    </row>
-    <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="17">
-        <v>47.0</v>
-      </c>
-      <c r="C49" s="17">
-        <v>0.319</v>
-      </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="I49" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J49" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="L49" s="17" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="17">
-        <v>43.0</v>
-      </c>
-      <c r="C50" s="17">
-        <v>0.292</v>
-      </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="I50" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="J50" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="K50" s="20"/>
-      <c r="L50" s="17" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="17">
-        <v>44.0</v>
-      </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="I51" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J51" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="17">
-        <v>45.0</v>
-      </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="I52" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J52" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="L52" s="17" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="16">
-        <v>46.0</v>
-      </c>
-      <c r="H53" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="I53" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J53" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="L53" s="17" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="22">
-        <v>47.0</v>
-      </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="22">
-        <v>0.21</v>
-      </c>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="I54" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="J54" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="K54" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="L54" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="M54" s="25" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="17">
-        <v>48.0</v>
-      </c>
-      <c r="C55" s="17">
-        <v>0.239</v>
-      </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="I55" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J55" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="L55" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="20"/>
-      <c r="T55" s="20"/>
-      <c r="U55" s="20"/>
-      <c r="V55" s="20"/>
-      <c r="W55" s="20"/>
-      <c r="X55" s="20"/>
-      <c r="Y55" s="20"/>
-      <c r="Z55" s="20"/>
-    </row>
-    <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="17">
-        <v>49.0</v>
-      </c>
-      <c r="C56" s="17">
-        <v>0.254</v>
-      </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="I56" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J56" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="L56" s="17" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="17">
-        <v>50.0</v>
-      </c>
-      <c r="C57" s="26">
-        <v>0.253</v>
-      </c>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="I57" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J57" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="K57" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="L57" s="17" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="16">
-        <v>51.0</v>
-      </c>
-      <c r="C58" s="28">
-        <v>0.267</v>
-      </c>
-      <c r="H58" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="I58" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J58" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="17">
-        <v>52.0</v>
-      </c>
-      <c r="C59" s="17">
-        <v>0.353</v>
-      </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="I59" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J59" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="K59" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="L59" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="M59" s="20"/>
-    </row>
-    <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="16">
-        <v>53.0</v>
-      </c>
-      <c r="C60" s="16">
-        <v>0.348</v>
-      </c>
-      <c r="H60" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="I60" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J60" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="K60" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="L60" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="16">
-        <v>54.0</v>
-      </c>
-      <c r="C61" s="16">
-        <v>0.334</v>
-      </c>
-      <c r="H61" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="I61" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J61" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="K61" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="L61" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="17">
-        <v>55.0</v>
-      </c>
-      <c r="C62" s="17">
-        <v>0.335</v>
-      </c>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="I62" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J62" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="K62" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="L62" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="16">
-        <v>56.0</v>
-      </c>
-      <c r="C63" s="16">
-        <v>0.35</v>
-      </c>
-      <c r="H63" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="I63" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J63" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="K63" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="L63" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="16">
-        <v>57.0</v>
-      </c>
-      <c r="C64" s="16">
-        <v>0.346</v>
-      </c>
-      <c r="H64" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="I64" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J64" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="K64" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="L64" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="29">
-        <v>58.0</v>
-      </c>
-      <c r="C65" s="29">
+      <c r="H82" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="I82" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J82" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25" customHeight="1">
+      <c r="A83" s="19">
+        <v>76.0</v>
+      </c>
+      <c r="C83" s="19">
+        <v>0.405</v>
+      </c>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="I83" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J83" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25" customHeight="1">
+      <c r="A84" s="45">
+        <v>77.0</v>
+      </c>
+      <c r="B84" s="13"/>
+      <c r="C84" s="45">
         <v>0.425</v>
       </c>
-      <c r="D65" s="30">
-        <v>0.5132</v>
-      </c>
-      <c r="E65" s="31"/>
-      <c r="F65" s="29" t="s">
-        <v>324</v>
-      </c>
-      <c r="G65" s="31"/>
-      <c r="H65" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="I65" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="J65" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="K65" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="L65" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="M65" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="16">
-        <v>59.0</v>
-      </c>
-      <c r="C66" s="28">
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="I84" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="J84" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="K84" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="L84" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="M84" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25" customHeight="1">
+      <c r="A85" s="33">
+        <v>78.0</v>
+      </c>
+      <c r="C85" s="33">
+        <v>0.362</v>
+      </c>
+      <c r="H85" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="I85" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J85" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25" customHeight="1">
+      <c r="A86" s="33">
+        <v>79.0</v>
+      </c>
+      <c r="C86" s="33">
+        <v>0.32</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I86" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J86" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25" customHeight="1">
+      <c r="A87" s="33">
+        <v>80.0</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="I87" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25" customHeight="1">
+      <c r="A88" s="19">
+        <v>81.0</v>
+      </c>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="I88" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="L88" s="22"/>
+    </row>
+    <row r="89" ht="14.25" customHeight="1">
+      <c r="A89" s="24">
+        <v>82.0</v>
+      </c>
+      <c r="B89" s="13"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="44"/>
+      <c r="F89" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="G89" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="H89" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="I89" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="J89" s="44"/>
+      <c r="K89" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="L89" s="44"/>
+      <c r="M89" s="46" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25" customHeight="1">
+      <c r="A90" s="47">
+        <v>83.0</v>
+      </c>
+      <c r="C90" s="47">
+        <v>0.411</v>
+      </c>
+      <c r="D90" s="48"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="47" t="s">
+        <v>420</v>
+      </c>
+      <c r="I90" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="J90" s="48"/>
+      <c r="K90" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="L90" s="48"/>
+    </row>
+    <row r="91" ht="14.25" customHeight="1">
+      <c r="A91" s="19">
+        <v>84.0</v>
+      </c>
+      <c r="C91" s="19">
+        <v>0.399</v>
+      </c>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="G91" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="H91" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="I91" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J91" s="22"/>
+      <c r="K91" s="9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25" customHeight="1">
+      <c r="A92" s="19">
+        <v>85.0</v>
+      </c>
+      <c r="C92" s="19">
+        <v>0.414</v>
+      </c>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="G92" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="H92" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="I92" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J92" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="K92" s="19" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25" customHeight="1">
+      <c r="A93" s="19">
+        <v>86.0</v>
+      </c>
+      <c r="C93" s="19">
+        <v>0.374</v>
+      </c>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="G93" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="H93" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="I93" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J93" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="K93" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="L93" s="22"/>
+    </row>
+    <row r="94" ht="14.25" customHeight="1">
+      <c r="A94" s="49">
+        <v>87.0</v>
+      </c>
+      <c r="C94" s="49">
         <v>0.416</v>
       </c>
-      <c r="D66" s="2">
-        <v>0.5344</v>
-      </c>
-      <c r="H66" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="I66" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="J66" s="32" t="s">
-        <v>331</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="16">
-        <v>60.0</v>
-      </c>
-      <c r="C67" s="28">
-        <v>0.388</v>
-      </c>
-      <c r="D67" s="2">
-        <v>0.502</v>
-      </c>
-      <c r="H67" s="32" t="s">
-        <v>334</v>
-      </c>
-      <c r="I67" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="J67" s="32" t="s">
-        <v>335</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="16">
-        <v>61.0</v>
-      </c>
-      <c r="C68" s="28">
-        <v>0.397</v>
-      </c>
-      <c r="D68" s="2">
-        <v>0.5106</v>
-      </c>
-      <c r="H68" s="32" t="s">
-        <v>338</v>
-      </c>
-      <c r="I68" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="J68" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="16">
-        <v>62.0</v>
-      </c>
-      <c r="C69" s="28">
-        <v>0.395</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="H69" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="I69" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="J69" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="17">
-        <v>63.0</v>
-      </c>
-      <c r="C70" s="17">
-        <v>0.344</v>
-      </c>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="I70" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J70" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="K70" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="L70" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="17">
-        <v>64.0</v>
-      </c>
-      <c r="C71" s="17">
-        <v>0.309</v>
-      </c>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="I71" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J71" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="K71" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="L71" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="16">
-        <v>65.0</v>
-      </c>
-      <c r="C72" s="16">
-        <v>0.382</v>
-      </c>
-      <c r="H72" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="I72" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J72" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="K72" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" s="16">
-        <v>66.0</v>
-      </c>
-      <c r="C73" s="16">
-        <v>0.36</v>
-      </c>
-      <c r="H73" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="I73" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J73" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="K73" s="16" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="16">
-        <v>67.0</v>
-      </c>
-      <c r="C74" s="16">
-        <v>0.39</v>
-      </c>
-      <c r="H74" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="I74" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J74" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="K74" s="10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="16">
-        <v>68.0</v>
-      </c>
-      <c r="C75" s="16">
-        <v>0.38</v>
-      </c>
-      <c r="H75" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="I75" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J75" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="K75" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="L75" s="10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" s="17">
-        <v>69.0</v>
-      </c>
-      <c r="C76" s="17">
-        <v>0.377</v>
-      </c>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="I76" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J76" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="K76" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="L76" s="17" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="16">
-        <v>70.0</v>
-      </c>
-      <c r="C77" s="16">
-        <v>0.353</v>
-      </c>
-      <c r="H77" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="I77" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J77" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="K77" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="L77" s="10" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="17">
-        <v>71.0</v>
-      </c>
-      <c r="C78" s="17">
-        <v>0.364</v>
-      </c>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="I78" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J78" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="K78" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="L78" s="10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" s="16">
-        <v>72.0</v>
-      </c>
-      <c r="C79" s="16">
-        <v>0.375</v>
-      </c>
-      <c r="H79" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="I79" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J79" s="18" t="s">
-        <v>380</v>
-      </c>
-      <c r="K79" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="L79" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="16">
-        <v>73.0</v>
-      </c>
-      <c r="C80" s="16">
-        <v>0.399</v>
-      </c>
-      <c r="H80" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="I80" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="J80" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="K80" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="L80" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="17">
-        <v>74.0</v>
-      </c>
-      <c r="C81" s="17">
-        <v>0.417</v>
-      </c>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="I81" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J81" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="L81" s="17" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" s="28">
-        <v>75.0</v>
-      </c>
-      <c r="C82" s="28">
-        <v>0.412</v>
-      </c>
-      <c r="H82" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="I82" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J82" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="17">
-        <v>76.0</v>
-      </c>
-      <c r="C83" s="17">
-        <v>0.405</v>
-      </c>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="I83" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J83" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" s="28">
-        <v>77.0</v>
-      </c>
-      <c r="C84" s="28">
-        <v>0.425</v>
-      </c>
-      <c r="H84" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="I84" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J84" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="L84" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" s="28">
-        <v>78.0</v>
-      </c>
-      <c r="C85" s="28">
-        <v>0.362</v>
-      </c>
-      <c r="H85" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="I85" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J85" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" s="28">
-        <v>79.0</v>
-      </c>
-      <c r="C86" s="28">
-        <v>0.32</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="I86" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J86" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="L86" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" s="28">
-        <v>80.0</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="I87" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="88" ht="14.25" customHeight="1">
-      <c r="A88" s="17">
-        <v>81.0</v>
-      </c>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="I88" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="L88" s="20"/>
-    </row>
-    <row r="89" ht="14.25" customHeight="1">
-      <c r="A89" s="17">
-        <v>82.0</v>
-      </c>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="G89" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="H89" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="I89" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J89" s="20"/>
-      <c r="K89" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="L89" s="20"/>
-      <c r="M89" s="10" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="90" ht="14.25" customHeight="1">
-      <c r="A90" s="33">
-        <v>83.0</v>
-      </c>
-      <c r="C90" s="33">
-        <v>0.411</v>
-      </c>
-      <c r="D90" s="34"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="33" t="s">
-        <v>419</v>
-      </c>
-      <c r="I90" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="J90" s="34"/>
-      <c r="K90" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="L90" s="34"/>
-    </row>
-    <row r="91" ht="14.25" customHeight="1">
-      <c r="A91" s="17">
-        <v>84.0</v>
-      </c>
-      <c r="C91" s="17">
-        <v>0.399</v>
-      </c>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="G91" s="17" t="s">
-        <v>422</v>
-      </c>
-      <c r="H91" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="I91" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J91" s="20"/>
-      <c r="K91" s="10" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="92" ht="14.25" customHeight="1">
-      <c r="A92" s="17">
-        <v>85.0</v>
-      </c>
-      <c r="C92" s="17">
-        <v>0.414</v>
-      </c>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="G92" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="H92" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="I92" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J92" s="17" t="s">
-        <v>428</v>
-      </c>
-      <c r="K92" s="17" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" s="17">
-        <v>86.0</v>
-      </c>
-      <c r="C93" s="17">
-        <v>0.374</v>
-      </c>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="17" t="s">
-        <v>430</v>
-      </c>
-      <c r="G93" s="17" t="s">
-        <v>431</v>
-      </c>
-      <c r="H93" s="17" t="s">
-        <v>432</v>
-      </c>
-      <c r="I93" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J93" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="K93" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="L93" s="20"/>
-    </row>
-    <row r="94" ht="14.25" customHeight="1">
-      <c r="A94" s="35">
-        <v>87.0</v>
-      </c>
-      <c r="C94" s="35">
-        <v>0.416</v>
-      </c>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="35" t="s">
-        <v>435</v>
-      </c>
-      <c r="G94" s="35" t="s">
+      <c r="D94" s="50"/>
+      <c r="E94" s="50"/>
+      <c r="F94" s="49" t="s">
         <v>436</v>
       </c>
-      <c r="H94" s="35" t="s">
+      <c r="G94" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="I94" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="J94" s="35" t="s">
+      <c r="H94" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="K94" s="37" t="s">
+      <c r="I94" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="J94" s="49" t="s">
         <v>439</v>
       </c>
-      <c r="L94" s="37" t="s">
+      <c r="K94" s="51" t="s">
         <v>440</v>
       </c>
-      <c r="M94" s="38" t="s">
+      <c r="L94" s="51" t="s">
         <v>441</v>
+      </c>
+      <c r="M94" s="52" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1"/>
     <row r="96" ht="14.25" customHeight="1">
-      <c r="B96" s="39" t="s">
-        <v>442</v>
+      <c r="B96" s="53" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1"/>
     <row r="98" ht="14.25" customHeight="1">
-      <c r="A98" s="17">
+      <c r="A98" s="19">
         <v>1.0</v>
       </c>
-      <c r="B98" s="17">
+      <c r="B98" s="19">
         <v>0.429</v>
       </c>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="G98" s="17" t="s">
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="H98" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="I98" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J98" s="17" t="s">
+      <c r="G98" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="H98" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="K98" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="L98" s="20"/>
-      <c r="M98" s="20"/>
-      <c r="N98" s="20"/>
-      <c r="O98" s="20"/>
-      <c r="P98" s="20"/>
-      <c r="Q98" s="20"/>
-      <c r="R98" s="20"/>
-      <c r="S98" s="20"/>
-      <c r="T98" s="20"/>
-      <c r="U98" s="20"/>
-      <c r="V98" s="20"/>
-      <c r="W98" s="20"/>
-      <c r="X98" s="20"/>
-      <c r="Y98" s="20"/>
-      <c r="Z98" s="20"/>
+      <c r="I98" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J98" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="K98" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="L98" s="22"/>
+      <c r="M98" s="22"/>
+      <c r="N98" s="22"/>
+      <c r="O98" s="22"/>
+      <c r="P98" s="22"/>
+      <c r="Q98" s="22"/>
+      <c r="R98" s="22"/>
+      <c r="S98" s="22"/>
+      <c r="T98" s="22"/>
+      <c r="U98" s="22"/>
+      <c r="V98" s="22"/>
+      <c r="W98" s="22"/>
+      <c r="X98" s="22"/>
+      <c r="Y98" s="22"/>
+      <c r="Z98" s="22"/>
     </row>
     <row r="99" ht="14.25" customHeight="1">
-      <c r="A99" s="17">
+      <c r="A99" s="19">
         <v>2.0</v>
       </c>
-      <c r="B99" s="17">
+      <c r="B99" s="19">
         <v>0.447</v>
       </c>
-      <c r="C99" s="17">
+      <c r="C99" s="19">
         <v>0.416</v>
       </c>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="40" t="s">
-        <v>435</v>
-      </c>
-      <c r="G99" s="40" t="s">
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="54" t="s">
         <v>436</v>
       </c>
-      <c r="H99" s="17" t="s">
+      <c r="G99" s="54" t="s">
         <v>437</v>
       </c>
-      <c r="I99" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J99" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="K99" s="40" t="s">
-        <v>439</v>
-      </c>
-      <c r="L99" s="17" t="s">
+      <c r="H99" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="I99" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J99" s="19" t="s">
         <v>446</v>
       </c>
-      <c r="M99" s="20"/>
-      <c r="N99" s="20"/>
-      <c r="O99" s="20"/>
-      <c r="P99" s="20"/>
-      <c r="Q99" s="20"/>
-      <c r="R99" s="20"/>
-      <c r="S99" s="20"/>
-      <c r="T99" s="20"/>
-      <c r="U99" s="20"/>
-      <c r="V99" s="20"/>
-      <c r="W99" s="20"/>
-      <c r="X99" s="20"/>
-      <c r="Y99" s="20"/>
-      <c r="Z99" s="20"/>
+      <c r="K99" s="54" t="s">
+        <v>440</v>
+      </c>
+      <c r="L99" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="M99" s="22"/>
+      <c r="N99" s="22"/>
+      <c r="O99" s="22"/>
+      <c r="P99" s="22"/>
+      <c r="Q99" s="22"/>
+      <c r="R99" s="22"/>
+      <c r="S99" s="22"/>
+      <c r="T99" s="22"/>
+      <c r="U99" s="22"/>
+      <c r="V99" s="22"/>
+      <c r="W99" s="22"/>
+      <c r="X99" s="22"/>
+      <c r="Y99" s="22"/>
+      <c r="Z99" s="22"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
-      <c r="A100" s="17">
+      <c r="A100" s="19">
         <v>3.0</v>
       </c>
-      <c r="B100" s="17">
+      <c r="B100" s="19">
         <v>0.389</v>
       </c>
-      <c r="C100" s="17">
+      <c r="C100" s="19">
         <v>0.425</v>
       </c>
-      <c r="D100" s="17">
+      <c r="D100" s="19">
         <v>0.5132</v>
       </c>
-      <c r="E100" s="20"/>
-      <c r="F100" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="G100" s="20"/>
-      <c r="H100" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="I100" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J100" s="17" t="s">
+      <c r="E100" s="22"/>
+      <c r="F100" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G100" s="22"/>
+      <c r="H100" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="K100" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="L100" s="20"/>
-      <c r="M100" s="20"/>
-      <c r="N100" s="20"/>
-      <c r="O100" s="20"/>
-      <c r="P100" s="20"/>
-      <c r="Q100" s="20"/>
-      <c r="R100" s="20"/>
-      <c r="S100" s="20"/>
-      <c r="T100" s="20"/>
-      <c r="U100" s="20"/>
-      <c r="V100" s="20"/>
-      <c r="W100" s="20"/>
-      <c r="X100" s="20"/>
-      <c r="Y100" s="20"/>
-      <c r="Z100" s="20"/>
+      <c r="I100" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J100" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="K100" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="L100" s="22"/>
+      <c r="M100" s="22"/>
+      <c r="N100" s="22"/>
+      <c r="O100" s="22"/>
+      <c r="P100" s="22"/>
+      <c r="Q100" s="22"/>
+      <c r="R100" s="22"/>
+      <c r="S100" s="22"/>
+      <c r="T100" s="22"/>
+      <c r="U100" s="22"/>
+      <c r="V100" s="22"/>
+      <c r="W100" s="22"/>
+      <c r="X100" s="22"/>
+      <c r="Y100" s="22"/>
+      <c r="Z100" s="22"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
-      <c r="A101" s="17">
+      <c r="A101" s="19">
         <v>4.0</v>
       </c>
-      <c r="B101" s="17">
+      <c r="B101" s="19">
         <v>0.447</v>
       </c>
-      <c r="C101" s="17">
+      <c r="C101" s="19">
         <v>0.416</v>
       </c>
-      <c r="D101" s="20"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="40" t="s">
-        <v>435</v>
-      </c>
-      <c r="G101" s="40" t="s">
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="54" t="s">
         <v>436</v>
       </c>
-      <c r="H101" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="I101" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J101" s="17" t="s">
+      <c r="G101" s="54" t="s">
+        <v>437</v>
+      </c>
+      <c r="H101" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="K101" s="40" t="s">
-        <v>439</v>
-      </c>
-      <c r="L101" s="17" t="s">
+      <c r="I101" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J101" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="M101" s="20"/>
-      <c r="N101" s="20"/>
-      <c r="O101" s="20"/>
-      <c r="P101" s="20"/>
-      <c r="Q101" s="20"/>
-      <c r="R101" s="20"/>
-      <c r="S101" s="20"/>
-      <c r="T101" s="20"/>
-      <c r="U101" s="20"/>
-      <c r="V101" s="20"/>
-      <c r="W101" s="20"/>
-      <c r="X101" s="20"/>
-      <c r="Y101" s="20"/>
-      <c r="Z101" s="20"/>
+      <c r="K101" s="54" t="s">
+        <v>440</v>
+      </c>
+      <c r="L101" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="M101" s="22"/>
+      <c r="N101" s="22"/>
+      <c r="O101" s="22"/>
+      <c r="P101" s="22"/>
+      <c r="Q101" s="22"/>
+      <c r="R101" s="22"/>
+      <c r="S101" s="22"/>
+      <c r="T101" s="22"/>
+      <c r="U101" s="22"/>
+      <c r="V101" s="22"/>
+      <c r="W101" s="22"/>
+      <c r="X101" s="22"/>
+      <c r="Y101" s="22"/>
+      <c r="Z101" s="22"/>
     </row>
     <row r="102" ht="14.25" customHeight="1"/>
     <row r="103" ht="14.25" customHeight="1"/>
@@ -5384,181 +5455,181 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>18</v>
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>18</v>
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>18</v>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>18</v>
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1"/>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="2" t="s">
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="2" t="s">
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C15" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B16" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>51</v>
+      <c r="C16" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="9" t="s">
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1"/>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>65</v>
+      <c r="A20" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1"/>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>66</v>
+      <c r="A22" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>68</v>
+      <c r="A23" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1"/>
